--- a/hardware/Orders/first order.xlsx
+++ b/hardware/Orders/first order.xlsx
@@ -435,7 +435,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
